--- a/xlsx_format/format.xlsx
+++ b/xlsx_format/format.xlsx
@@ -14,9 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+  <si>
+    <t>3行目から入力してください</t>
+  </si>
+  <si>
+    <t>授業ごとの出席データを格納するフォーマットです</t>
+  </si>
   <si>
     <t>スプレッドシートに関連する各種設定シートです</t>
+  </si>
+  <si>
+    <t>名言</t>
+  </si>
+  <si>
+    <t>人物</t>
+  </si>
+  <si>
+    <t>人物情報</t>
+  </si>
+  <si>
+    <t>勉強とは自分の無知を徐々に発見していくことである。</t>
+  </si>
+  <si>
+    <t>ウィル・デュラント</t>
+  </si>
+  <si>
+    <t>米国の歴史学者、作家、哲学者 / 1885～1981</t>
+  </si>
+  <si>
+    <t>才能で負けるのはまだ言い訳が立つ、しかし誠実さや、勉強、熱心、精神力で負けるのは人間として恥のように思う。他では負けても、せめて誠実さと、精神力では負けたくないと思う。</t>
+  </si>
+  <si>
+    <t>武者小路実篤</t>
+  </si>
+  <si>
+    <t>日本の小説家、詩人、劇作家、画家 / 1885～1976</t>
+  </si>
+  <si>
+    <t>誰よりも三倍、四倍、五倍勉強する者、それが天才だ。</t>
+  </si>
+  <si>
+    <t>野口英世</t>
+  </si>
+  <si>
+    <t>日本の細菌学者 / 1876～1928</t>
+  </si>
+  <si>
+    <t>人間は、元々そんなに賢くありません。勉強して修行して、やっとまともになるのです。</t>
+  </si>
+  <si>
+    <t>瀬戸内寂聴</t>
+  </si>
+  <si>
+    <t>日本の女性小説家、天台宗の尼僧 / 1922～</t>
+  </si>
+  <si>
+    <t>そりゃ、僕だって勉強や野球の練習は嫌いですよ。誰だってそうじゃないですか。つらいし、大抵はつまらないことの繰り返し。でも、僕は子供のころから、目標を持って努力するのが好きなんです。だってその努力が結果として出るのはうれしいじゃないですか。</t>
+  </si>
+  <si>
+    <t>イチロー</t>
+  </si>
+  <si>
+    <t>日本のプロ野球選手、日本及び米国で活躍 / 1973～</t>
   </si>
   <si>
     <t>カラムや行の追加を行うと正しく動作しなくなります</t>
@@ -33,111 +93,58 @@
     <t>基本設定</t>
   </si>
   <si>
+    <t>開始時間</t>
+  </si>
+  <si>
+    <t>終了時間</t>
+  </si>
+  <si>
+    <t>授業パスワード</t>
+  </si>
+  <si>
+    <t>xupxl</t>
+  </si>
+  <si>
     <t>する</t>
   </si>
   <si>
-    <t>名言</t>
+    <t>授業参加生徒</t>
+  </si>
+  <si>
+    <t>パスワード日時変更
+（実行する場合は する と入力）</t>
+  </si>
+  <si>
+    <t>出席</t>
   </si>
   <si>
     <t>パスワード文字列数</t>
   </si>
   <si>
-    <t>3行目から入力してください</t>
-  </si>
-  <si>
-    <t>授業ごとの出席データを格納するフォーマットです</t>
-  </si>
-  <si>
-    <t>人物</t>
-  </si>
-  <si>
-    <t>人物情報</t>
-  </si>
-  <si>
-    <t>勉強とは自分の無知を徐々に発見していくことである。</t>
-  </si>
-  <si>
-    <t>開始時間</t>
-  </si>
-  <si>
-    <t>終了時間</t>
-  </si>
-  <si>
-    <t>ウィル・デュラント</t>
-  </si>
-  <si>
-    <t>授業パスワード</t>
-  </si>
-  <si>
-    <t>米国の歴史学者、作家、哲学者 / 1885～1981</t>
-  </si>
-  <si>
-    <t>hd0i</t>
-  </si>
-  <si>
-    <t>授業参加生徒</t>
-  </si>
-  <si>
-    <t>才能で負けるのはまだ言い訳が立つ、しかし誠実さや、勉強、熱心、精神力で負けるのは人間として恥のように思う。他では負けても、せめて誠実さと、精神力では負けたくないと思う。</t>
-  </si>
-  <si>
-    <t>武者小路実篤</t>
-  </si>
-  <si>
-    <t>出席</t>
-  </si>
-  <si>
-    <t>日本の小説家、詩人、劇作家、画家 / 1885～1976</t>
-  </si>
-  <si>
     <t>学籍番号</t>
   </si>
   <si>
-    <t>誰よりも三倍、四倍、五倍勉強する者、それが天才だ。</t>
-  </si>
-  <si>
     <t>氏名</t>
   </si>
   <si>
-    <t>野口英世</t>
-  </si>
-  <si>
-    <t>日本の細菌学者 / 1876～1928</t>
-  </si>
-  <si>
-    <t>人間は、元々そんなに賢くありません。勉強して修行して、やっとまともになるのです。</t>
-  </si>
-  <si>
     <t>日付</t>
   </si>
   <si>
-    <t>瀬戸内寂聴</t>
-  </si>
-  <si>
     <t>時刻</t>
   </si>
   <si>
-    <t>日本の女性小説家、天台宗の尼僧 / 1922～</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
-    <t>そりゃ、僕だって勉強や野球の練習は嫌いですよ。誰だってそうじゃないですか。つらいし、大抵はつまらないことの繰り返し。でも、僕は子供のころから、目標を持って努力するのが好きなんです。だってその努力が結果として出るのはうれしいじゃないですか。</t>
-  </si>
-  <si>
-    <t>イチロー</t>
-  </si>
-  <si>
     <t>100005</t>
   </si>
   <si>
-    <t>日本のプロ野球選手、日本及び米国で活躍 / 1973～</t>
-  </si>
-  <si>
     <t>生徒5</t>
   </si>
   <si>
+    <t>APrZfeo4KkE6i54qt/XFuV7plXhHWHRZvzNNRqTfKpn9A73d4GU4VT0iQKM4YwR1pDGXmSlZf8Nr</t>
+  </si>
+  <si>
     <t>100006</t>
   </si>
   <si>
@@ -174,7 +181,7 @@
     <t>0生徒0</t>
   </si>
   <si>
-    <t>mwry</t>
+    <t>fvid9</t>
   </si>
   <si>
     <t xml:space="preserve"> key</t>
@@ -244,6 +251,12 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -251,12 +264,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -510,43 +517,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="7">
-      <c r="C7" s="3" t="s">
-        <v>7</v>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="5">
-        <v>4.0</v>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="7">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -566,73 +583,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -652,135 +669,161 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4">
         <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100005.0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8">
+        <v>43952.0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.654375</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100005.0</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="F11" s="8">
+        <v>43954.0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.5511111111111111</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>43</v>
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>45</v>
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>47</v>
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>49</v>
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="1004">
@@ -812,135 +855,158 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4">
         <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100005.0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8">
+        <v>43954.0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.6668402777777778</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100006.0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="8">
+        <v>43954.0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.6675231481481482</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>43</v>
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>45</v>
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>47</v>
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>49</v>
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="1004">

--- a/xlsx_format/format.xlsx
+++ b/xlsx_format/format.xlsx
@@ -14,69 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+  <si>
+    <t>スプレッドシートに関連する各種設定シートです</t>
+  </si>
+  <si>
+    <t>授業ごとの出席データを格納するフォーマットです</t>
+  </si>
   <si>
     <t>3行目から入力してください</t>
   </si>
   <si>
-    <t>授業ごとの出席データを格納するフォーマットです</t>
-  </si>
-  <si>
-    <t>スプレッドシートに関連する各種設定シートです</t>
-  </si>
-  <si>
     <t>名言</t>
-  </si>
-  <si>
-    <t>人物</t>
-  </si>
-  <si>
-    <t>人物情報</t>
-  </si>
-  <si>
-    <t>勉強とは自分の無知を徐々に発見していくことである。</t>
-  </si>
-  <si>
-    <t>ウィル・デュラント</t>
-  </si>
-  <si>
-    <t>米国の歴史学者、作家、哲学者 / 1885～1981</t>
-  </si>
-  <si>
-    <t>才能で負けるのはまだ言い訳が立つ、しかし誠実さや、勉強、熱心、精神力で負けるのは人間として恥のように思う。他では負けても、せめて誠実さと、精神力では負けたくないと思う。</t>
-  </si>
-  <si>
-    <t>武者小路実篤</t>
-  </si>
-  <si>
-    <t>日本の小説家、詩人、劇作家、画家 / 1885～1976</t>
-  </si>
-  <si>
-    <t>誰よりも三倍、四倍、五倍勉強する者、それが天才だ。</t>
-  </si>
-  <si>
-    <t>野口英世</t>
-  </si>
-  <si>
-    <t>日本の細菌学者 / 1876～1928</t>
-  </si>
-  <si>
-    <t>人間は、元々そんなに賢くありません。勉強して修行して、やっとまともになるのです。</t>
-  </si>
-  <si>
-    <t>瀬戸内寂聴</t>
-  </si>
-  <si>
-    <t>日本の女性小説家、天台宗の尼僧 / 1922～</t>
-  </si>
-  <si>
-    <t>そりゃ、僕だって勉強や野球の練習は嫌いですよ。誰だってそうじゃないですか。つらいし、大抵はつまらないことの繰り返し。でも、僕は子供のころから、目標を持って努力するのが好きなんです。だってその努力が結果として出るのはうれしいじゃないですか。</t>
-  </si>
-  <si>
-    <t>イチロー</t>
-  </si>
-  <si>
-    <t>日本のプロ野球選手、日本及び米国で活躍 / 1973～</t>
   </si>
   <si>
     <t>カラムや行の追加を行うと正しく動作しなくなります</t>
@@ -86,10 +35,61 @@
 （追加する場合は行末に追加してく）</t>
   </si>
   <si>
+    <t>人物</t>
+  </si>
+  <si>
+    <t>人物情報</t>
+  </si>
+  <si>
+    <t>勉強とは自分の無知を徐々に発見していくことである。</t>
+  </si>
+  <si>
+    <t>ウィル・デュラント</t>
+  </si>
+  <si>
+    <t>米国の歴史学者、作家、哲学者 / 1885～1981</t>
+  </si>
+  <si>
+    <t>才能で負けるのはまだ言い訳が立つ、しかし誠実さや、勉強、熱心、精神力で負けるのは人間として恥のように思う。他では負けても、せめて誠実さと、精神力では負けたくないと思う。</t>
+  </si>
+  <si>
+    <t>武者小路実篤</t>
+  </si>
+  <si>
     <t>格言の利用
 （利用する場合は する と入力）</t>
   </si>
   <si>
+    <t>日本の小説家、詩人、劇作家、画家 / 1885～1976</t>
+  </si>
+  <si>
+    <t>誰よりも三倍、四倍、五倍勉強する者、それが天才だ。</t>
+  </si>
+  <si>
+    <t>野口英世</t>
+  </si>
+  <si>
+    <t>日本の細菌学者 / 1876～1928</t>
+  </si>
+  <si>
+    <t>人間は、元々そんなに賢くありません。勉強して修行して、やっとまともになるのです。</t>
+  </si>
+  <si>
+    <t>瀬戸内寂聴</t>
+  </si>
+  <si>
+    <t>日本の女性小説家、天台宗の尼僧 / 1922～</t>
+  </si>
+  <si>
+    <t>そりゃ、僕だって勉強や野球の練習は嫌いですよ。誰だってそうじゃないですか。つらいし、大抵はつまらないことの繰り返し。でも、僕は子供のころから、目標を持って努力するのが好きなんです。だってその努力が結果として出るのはうれしいじゃないですか。</t>
+  </si>
+  <si>
+    <t>イチロー</t>
+  </si>
+  <si>
+    <t>日本のプロ野球選手、日本及び米国で活躍 / 1973～</t>
+  </si>
+  <si>
     <t>基本設定</t>
   </si>
   <si>
@@ -99,31 +99,31 @@
     <t>終了時間</t>
   </si>
   <si>
+    <t>する</t>
+  </si>
+  <si>
     <t>授業パスワード</t>
   </si>
   <si>
-    <t>xupxl</t>
-  </si>
-  <si>
-    <t>する</t>
+    <t>aaaa</t>
   </si>
   <si>
     <t>授業参加生徒</t>
+  </si>
+  <si>
+    <t>出席</t>
   </si>
   <si>
     <t>パスワード日時変更
 （実行する場合は する と入力）</t>
   </si>
   <si>
-    <t>出席</t>
+    <t>学籍番号</t>
   </si>
   <si>
     <t>パスワード文字列数</t>
   </si>
   <si>
-    <t>学籍番号</t>
-  </si>
-  <si>
     <t>氏名</t>
   </si>
   <si>
@@ -133,58 +133,28 @@
     <t>時刻</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>100005</t>
+    <t>uniqueKey</t>
   </si>
   <si>
     <t>生徒5</t>
   </si>
   <si>
-    <t>APrZfeo4KkE6i54qt/XFuV7plXhHWHRZvzNNRqTfKpn9A73d4GU4VT0iQKM4YwR1pDGXmSlZf8Nr</t>
-  </si>
-  <si>
-    <t>100006</t>
-  </si>
-  <si>
     <t>生徒6</t>
   </si>
   <si>
-    <t>100007</t>
-  </si>
-  <si>
     <t>生徒7</t>
   </si>
   <si>
-    <t>100008</t>
-  </si>
-  <si>
     <t>生徒8</t>
   </si>
   <si>
-    <t>100009</t>
-  </si>
-  <si>
     <t>生徒9</t>
   </si>
   <si>
-    <t>100010</t>
-  </si>
-  <si>
     <t>生徒10</t>
   </si>
   <si>
-    <t>00010</t>
-  </si>
-  <si>
     <t>0生徒0</t>
-  </si>
-  <si>
-    <t>fvid9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> key</t>
   </si>
 </sst>
 </file>
@@ -241,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -254,12 +224,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -276,9 +246,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -517,20 +484,20 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -538,7 +505,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -547,18 +514,18 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="5" t="s">
-        <v>31</v>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="5" t="s">
-        <v>33</v>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -583,7 +550,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -591,65 +558,65 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -671,23 +638,23 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>0.4166666666666667</v>
       </c>
     </row>
@@ -695,16 +662,16 @@
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -712,18 +679,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
@@ -734,96 +701,70 @@
       <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3">
-        <v>100005.0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8">
-        <v>43952.0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.654375</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3">
-        <v>100005.0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8">
-        <v>43954.0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.5511111111111111</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
+      <c r="A13" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
+      <c r="A14" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
+      <c r="A15" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
+      <c r="A16" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1004">
@@ -857,23 +798,23 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>0.4166666666666667</v>
       </c>
     </row>
@@ -881,16 +822,16 @@
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -898,115 +839,92 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3">
-        <v>100005.0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8">
-        <v>43954.0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.6668402777777778</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3">
-        <v>100006.0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="8">
-        <v>43954.0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.6675231481481482</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="1004">

--- a/xlsx_format/format.xlsx
+++ b/xlsx_format/format.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+  <si>
+    <t>3行目から入力してください</t>
+  </si>
+  <si>
+    <t>名言</t>
+  </si>
   <si>
     <t>スプレッドシートに関連する各種設定シートです</t>
-  </si>
-  <si>
-    <t>授業ごとの出席データを格納するフォーマットです</t>
-  </si>
-  <si>
-    <t>3行目から入力してください</t>
-  </si>
-  <si>
-    <t>名言</t>
   </si>
   <si>
     <t>カラムや行の追加を行うと正しく動作しなくなります</t>
@@ -35,6 +32,9 @@
 （追加する場合は行末に追加してく）</t>
   </si>
   <si>
+    <t>授業ごとの出席データを格納するフォーマットです</t>
+  </si>
+  <si>
     <t>人物</t>
   </si>
   <si>
@@ -47,22 +47,31 @@
     <t>ウィル・デュラント</t>
   </si>
   <si>
+    <t>開始時間</t>
+  </si>
+  <si>
     <t>米国の歴史学者、作家、哲学者 / 1885～1981</t>
-  </si>
-  <si>
-    <t>才能で負けるのはまだ言い訳が立つ、しかし誠実さや、勉強、熱心、精神力で負けるのは人間として恥のように思う。他では負けても、せめて誠実さと、精神力では負けたくないと思う。</t>
-  </si>
-  <si>
-    <t>武者小路実篤</t>
   </si>
   <si>
     <t>格言の利用
 （利用する場合は する と入力）</t>
   </si>
   <si>
+    <t>才能で負けるのはまだ言い訳が立つ、しかし誠実さや、勉強、熱心、精神力で負けるのは人間として恥のように思う。他では負けても、せめて誠実さと、精神力では負けたくないと思う。</t>
+  </si>
+  <si>
+    <t>基本設定</t>
+  </si>
+  <si>
+    <t>武者小路実篤</t>
+  </si>
+  <si>
     <t>日本の小説家、詩人、劇作家、画家 / 1885～1976</t>
   </si>
   <si>
+    <t>終了時間</t>
+  </si>
+  <si>
     <t>誰よりも三倍、四倍、五倍勉強する者、それが天才だ。</t>
   </si>
   <si>
@@ -72,6 +81,9 @@
     <t>日本の細菌学者 / 1876～1928</t>
   </si>
   <si>
+    <t>授業パスワード</t>
+  </si>
+  <si>
     <t>人間は、元々そんなに賢くありません。勉強して修行して、やっとまともになるのです。</t>
   </si>
   <si>
@@ -90,40 +102,28 @@
     <t>日本のプロ野球選手、日本及び米国で活躍 / 1973～</t>
   </si>
   <si>
-    <t>基本設定</t>
-  </si>
-  <si>
-    <t>開始時間</t>
-  </si>
-  <si>
-    <t>終了時間</t>
-  </si>
-  <si>
     <t>する</t>
-  </si>
-  <si>
-    <t>授業パスワード</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>授業参加生徒</t>
-  </si>
-  <si>
-    <t>出席</t>
   </si>
   <si>
     <t>パスワード日時変更
 （実行する場合は する と入力）</t>
   </si>
   <si>
+    <t>パスワード文字列数</t>
+  </si>
+  <si>
+    <t>遅刻許容時間（分）</t>
+  </si>
+  <si>
+    <t>授業参加生徒</t>
+  </si>
+  <si>
+    <t>出席</t>
+  </si>
+  <si>
     <t>学籍番号</t>
   </si>
   <si>
-    <t>パスワード文字列数</t>
-  </si>
-  <si>
     <t>氏名</t>
   </si>
   <si>
@@ -136,6 +136,21 @@
     <t>uniqueKey</t>
   </si>
   <si>
+    <t>遅刻</t>
+  </si>
+  <si>
+    <t>生徒1</t>
+  </si>
+  <si>
+    <t>生徒2</t>
+  </si>
+  <si>
+    <t>生徒3</t>
+  </si>
+  <si>
+    <t>生徒4</t>
+  </si>
+  <si>
     <t>生徒5</t>
   </si>
   <si>
@@ -154,7 +169,64 @@
     <t>生徒10</t>
   </si>
   <si>
-    <t>0生徒0</t>
+    <t>生徒11</t>
+  </si>
+  <si>
+    <t>生徒12</t>
+  </si>
+  <si>
+    <t>生徒13</t>
+  </si>
+  <si>
+    <t>生徒14</t>
+  </si>
+  <si>
+    <t>生徒15</t>
+  </si>
+  <si>
+    <t>生徒16</t>
+  </si>
+  <si>
+    <t>生徒17</t>
+  </si>
+  <si>
+    <t>生徒18</t>
+  </si>
+  <si>
+    <t>生徒19</t>
+  </si>
+  <si>
+    <t>生徒20</t>
+  </si>
+  <si>
+    <t>生徒21</t>
+  </si>
+  <si>
+    <t>生徒22</t>
+  </si>
+  <si>
+    <t>生徒23</t>
+  </si>
+  <si>
+    <t>生徒24</t>
+  </si>
+  <si>
+    <t>生徒25</t>
+  </si>
+  <si>
+    <t>生徒26</t>
+  </si>
+  <si>
+    <t>生徒27</t>
+  </si>
+  <si>
+    <t>生徒28</t>
+  </si>
+  <si>
+    <t>生徒29</t>
+  </si>
+  <si>
+    <t>生徒30</t>
   </si>
 </sst>
 </file>
@@ -164,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -182,6 +254,10 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -211,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -221,13 +297,13 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -241,6 +317,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -484,53 +563,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="4" t="s">
-        <v>32</v>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="s">
-        <v>27</v>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="4" t="s">
-        <v>34</v>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>5.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="4">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -550,12 +639,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -565,58 +654,58 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -636,23 +725,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
         <v>0.4166666666666667</v>
@@ -660,37 +749,37 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="7">
+        <v>12345.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
@@ -701,83 +790,270 @@
       <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>2.0</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="7">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>4.0</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>44</v>
+        <v>6.0</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="1004">
-      <c r="F1004" s="10"/>
-      <c r="G1004" s="11"/>
+      <c r="F1004" s="11"/>
+      <c r="G1004" s="12"/>
     </row>
     <row r="1005">
-      <c r="F1005" s="10"/>
-      <c r="G1005" s="11"/>
+      <c r="F1005" s="11"/>
+      <c r="G1005" s="12"/>
     </row>
     <row r="1006">
-      <c r="F1006" s="10"/>
-      <c r="G1006" s="11"/>
+      <c r="F1006" s="11"/>
+      <c r="G1006" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -796,148 +1072,335 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
         <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="7">
+        <v>12345.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+        <v>3.0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>4.0</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>5.0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>6.0</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>7.0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="1004">
-      <c r="F1004" s="10"/>
-      <c r="G1004" s="11"/>
+      <c r="F1004" s="11"/>
+      <c r="G1004" s="12"/>
     </row>
     <row r="1005">
-      <c r="F1005" s="10"/>
-      <c r="G1005" s="11"/>
+      <c r="F1005" s="11"/>
+      <c r="G1005" s="12"/>
     </row>
     <row r="1006">
-      <c r="F1006" s="10"/>
-      <c r="G1006" s="11"/>
+      <c r="F1006" s="11"/>
+      <c r="G1006" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
